--- a/GL150_Script_InquireonJournalLines_21B.xlsx
+++ b/GL150_Script_InquireonJournalLines_21B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\21B_Results_and_Scripts\GL Scripts Batch2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ4862\Desktop\25th June GL Full Batch\23June-GL Files\Batch2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B668260E-1174-4357-B7A6-3AA42496CEB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822CD283-BA80-4418-844D-F75DB1AD0328}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InquireOnJournalLines" sheetId="30" r:id="rId1"/>
@@ -18,16 +18,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AllObjects!$A$1:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InquireOnJournalLines!$A$1:$N$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InquireOnJournalLines!$J$1:$J$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="243">
   <si>
     <t>SCREENSHOT</t>
   </si>
@@ -316,12 +314,6 @@
     <t>PrimaryBalSeg</t>
   </si>
   <si>
-    <t>PrimaryBalSeg entered</t>
-  </si>
-  <si>
-    <t>Enter PrimaryBalSeg</t>
-  </si>
-  <si>
     <t>//input[contains(@id,'AP1:q1:value120::content')]</t>
   </si>
   <si>
@@ -400,108 +392,27 @@
     <t>AmountLink</t>
   </si>
   <si>
-    <t>Clicked on AmountLink</t>
-  </si>
-  <si>
-    <t>Click on AmountLink</t>
-  </si>
-  <si>
     <t>ViewJournalEntry</t>
   </si>
   <si>
-    <t>Clicked on ViewJournalEntry</t>
-  </si>
-  <si>
-    <t>Explicit wait for ViewJournalEntry</t>
-  </si>
-  <si>
-    <t>Click on ViewJournalEntry</t>
-  </si>
-  <si>
     <t>//button[contains(@id,'AP1:commandButton2')]</t>
   </si>
   <si>
     <t>ViewTransaction</t>
   </si>
   <si>
-    <t>Clicked on ViewTransaction</t>
-  </si>
-  <si>
-    <t>Explicit wait for ViewTransaction</t>
-  </si>
-  <si>
-    <t>Click on ViewTransaction</t>
-  </si>
-  <si>
     <t>InvoicePage</t>
   </si>
   <si>
     <t>//td[2]/div[contains(@title,'Invoice:')]</t>
   </si>
   <si>
-    <t>Explicit wait for InvoicePage</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
-    <t>Clicked on Done</t>
-  </si>
-  <si>
-    <t>Click on Done</t>
-  </si>
-  <si>
     <t>Step 42</t>
   </si>
   <si>
-    <t>Click on Username</t>
-  </si>
-  <si>
-    <t>Clicked on Username</t>
-  </si>
-  <si>
-    <t>Wait for SignOut</t>
-  </si>
-  <si>
-    <t>Waited for SignOut</t>
-  </si>
-  <si>
-    <t>Click on SignOut</t>
-  </si>
-  <si>
-    <t>Clicked on SignOut</t>
-  </si>
-  <si>
-    <t>Wait for LogoutConsentDiv</t>
-  </si>
-  <si>
-    <t>Waited for LogoutConsentDiv</t>
-  </si>
-  <si>
-    <t>Step 47</t>
-  </si>
-  <si>
-    <t>Wait for ConfirmBtn</t>
-  </si>
-  <si>
-    <t>Waited for ConfirmBtn</t>
-  </si>
-  <si>
-    <t>Step 48</t>
-  </si>
-  <si>
-    <t>Click on ConfirmBtn</t>
-  </si>
-  <si>
-    <t>Clicked on ConfirmBtn</t>
-  </si>
-  <si>
-    <t>Step 49</t>
-  </si>
-  <si>
-    <t>Close Browser</t>
-  </si>
-  <si>
     <t>Explicit wait for PeriodClose</t>
   </si>
   <si>
@@ -529,15 +440,6 @@
     <t>//a/span[text()='ne']</t>
   </si>
   <si>
-    <t>Manage Journal Page</t>
-  </si>
-  <si>
-    <t>Check filter clicked</t>
-  </si>
-  <si>
-    <t>check filter</t>
-  </si>
-  <si>
     <t>Step 24</t>
   </si>
   <si>
@@ -589,21 +491,6 @@
     <t>Step 41</t>
   </si>
   <si>
-    <t>Step 50</t>
-  </si>
-  <si>
-    <t>Step 51</t>
-  </si>
-  <si>
-    <t>Step 52</t>
-  </si>
-  <si>
-    <t>Step 53</t>
-  </si>
-  <si>
-    <t>Step 54</t>
-  </si>
-  <si>
     <t>SelectItemByVisibleText</t>
   </si>
   <si>
@@ -664,27 +551,6 @@
     <t>//td[2]/div[@title='Manage Accounting Periods']</t>
   </si>
   <si>
-    <t>Step 55</t>
-  </si>
-  <si>
-    <t>Step 56</t>
-  </si>
-  <si>
-    <t>Step 57</t>
-  </si>
-  <si>
-    <t>Step 58</t>
-  </si>
-  <si>
-    <t>Step 59</t>
-  </si>
-  <si>
-    <t>Step 60</t>
-  </si>
-  <si>
-    <t>Step 61</t>
-  </si>
-  <si>
     <t>AccountingPrd</t>
   </si>
   <si>
@@ -724,30 +590,6 @@
     <t>Step 23</t>
   </si>
   <si>
-    <t>Step 62</t>
-  </si>
-  <si>
-    <t>Step 63</t>
-  </si>
-  <si>
-    <t>Step 64</t>
-  </si>
-  <si>
-    <t>Step 65</t>
-  </si>
-  <si>
-    <t>Step 66</t>
-  </si>
-  <si>
-    <t>Step 67</t>
-  </si>
-  <si>
-    <t>Step 68</t>
-  </si>
-  <si>
-    <t>Exists||Step 48-Step 49||Step 50-Step 51</t>
-  </si>
-  <si>
     <t>GeneralAcctLink</t>
   </si>
   <si>
@@ -766,12 +608,6 @@
     <t>//input[contains(@id,':q1:value90::content')]</t>
   </si>
   <si>
-    <t>CloseWindow</t>
-  </si>
-  <si>
-    <t>IfElseLoop</t>
-  </si>
-  <si>
     <t>//table[@summary='Journal Lines']/tbody/tr[1]/td[2]/div/table/tbody/tr/td[3]/span/a</t>
   </si>
   <si>
@@ -820,12 +656,6 @@
     <t>ClickElementUsingJS</t>
   </si>
   <si>
-    <t>Exists||Step 53-Step 60||Step 61-Step 62</t>
-  </si>
-  <si>
-    <t>Step 69</t>
-  </si>
-  <si>
     <t>Step 43</t>
   </si>
   <si>
@@ -838,9 +668,6 @@
     <t>Done1</t>
   </si>
   <si>
-    <t>//a/span[text()='View Journal Entry']</t>
-  </si>
-  <si>
     <t>//table[@summary='Journal Lines']/tbody/tr[1]//tr/td[7]/span/a</t>
   </si>
   <si>
@@ -859,15 +686,9 @@
     <t>LongExplicitWait</t>
   </si>
   <si>
-    <t>LowWait</t>
-  </si>
-  <si>
     <t>MediumWait</t>
   </si>
   <si>
-    <t>HighestWait</t>
-  </si>
-  <si>
     <t>Arrow Wait</t>
   </si>
   <si>
@@ -880,10 +701,67 @@
     <t>//*[contains(@id,'clusters-right-nav')]</t>
   </si>
   <si>
-    <t>Logout Page</t>
-  </si>
-  <si>
     <t>Step 25</t>
+  </si>
+  <si>
+    <t>_FOpt1:_FOr1:0:_FONSr2:0:MAnt2:1:AP1:AT2:_ATp:table2:0:cl1</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'MAnt2:1:AP1:AT2:_ATp:table2:0:cl1')]</t>
+  </si>
+  <si>
+    <t>Verify Journal</t>
+  </si>
+  <si>
+    <t>Verified Journal</t>
+  </si>
+  <si>
+    <t>VerifyText</t>
+  </si>
+  <si>
+    <t>VerifyAccountPeriod</t>
+  </si>
+  <si>
+    <t>VerifyLedger</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'showLessLedgerCLOV:sis1:is1::content')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'showLessPeriodNameCLOV:sis1:is1::content')]</t>
+  </si>
+  <si>
+    <t>Click on Acct Prd</t>
+  </si>
+  <si>
+    <t>Clicked on Acct Prd</t>
+  </si>
+  <si>
+    <t>Enter Acct Prd</t>
+  </si>
+  <si>
+    <t>Entered Acct Prd</t>
+  </si>
+  <si>
+    <t>Select Status</t>
+  </si>
+  <si>
+    <t>Status Selected</t>
+  </si>
+  <si>
+    <t>Click Primary</t>
+  </si>
+  <si>
+    <t>Clicked Primary</t>
+  </si>
+  <si>
+    <t>Enter Primary</t>
+  </si>
+  <si>
+    <t>Entered Primary</t>
+  </si>
+  <si>
+    <t>Wait for Search</t>
   </si>
 </sst>
 </file>
@@ -897,7 +775,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _P_t_s_-;\-* #,##0.00\ _P_t_s_-;_-* &quot;-&quot;??\ _P_t_s_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1084,6 +962,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="48">
@@ -9313,7 +9197,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -9332,6 +9216,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7827">
     <cellStyle name=" 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -17162,187 +17047,7 @@
     <cellStyle name="Warning Text 9" xfId="5939" xr:uid="{00000000-0005-0000-0000-0000911E0000}"/>
     <cellStyle name="Warning Text 9 2" xfId="7821" xr:uid="{00000000-0005-0000-0000-0000921E0000}"/>
   </cellStyles>
-  <dxfs count="104">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="86">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -18547,15 +18252,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N68"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="20.36328125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="24.36328125" style="2" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="25.26953125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="8.90625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="30.26953125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
@@ -18613,7 +18318,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>271</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -18634,7 +18339,7 @@
         <v>74</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>22</v>
@@ -18643,7 +18348,7 @@
         <v>90</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="K2" s="6"/>
       <c r="M2" s="2" t="s">
@@ -18677,12 +18382,12 @@
         <v>90</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3"/>
       <c r="M3" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -18694,10 +18399,10 @@
         <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>24</v>
@@ -18716,7 +18421,7 @@
       </c>
       <c r="K4" s="2"/>
       <c r="M4" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -18728,10 +18433,10 @@
         <v>76</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>24</v>
@@ -18746,11 +18451,11 @@
         <v>90</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K5" s="6"/>
       <c r="M5" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -18762,10 +18467,10 @@
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>24</v>
@@ -18780,11 +18485,11 @@
         <v>90</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K6" s="6"/>
       <c r="M6" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -18796,10 +18501,10 @@
         <v>77</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>24</v>
@@ -18818,7 +18523,7 @@
       </c>
       <c r="K7" s="2"/>
       <c r="M7" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -18848,12 +18553,12 @@
         <v>90</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8"/>
       <c r="M8" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -18862,7 +18567,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>247</v>
+        <v>193</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>51</v>
@@ -18880,24 +18585,22 @@
         <v>32</v>
       </c>
       <c r="M9" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="A10" s="5"/>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>248</v>
+        <v>194</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>277</v>
+        <v>218</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>277</v>
+        <v>218</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>24</v>
@@ -18906,23 +18609,21 @@
         <v>37</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>278</v>
+        <v>219</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="K10" s="2"/>
       <c r="M10" s="2" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="A11" s="5"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
@@ -18930,10 +18631,10 @@
         <v>79</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>279</v>
+        <v>220</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>279</v>
+        <v>220</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>24</v>
@@ -18942,18 +18643,16 @@
         <v>21</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>278</v>
+        <v>219</v>
       </c>
       <c r="I11" s="2"/>
       <c r="K11" s="2"/>
       <c r="M11" s="2" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
@@ -18973,23 +18672,21 @@
         <v>37</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>237</v>
+        <v>185</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>90</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>272</v>
+        <v>215</v>
       </c>
       <c r="K12" s="2"/>
       <c r="M12" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
@@ -19009,24 +18706,22 @@
         <v>21</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>237</v>
+        <v>185</v>
       </c>
       <c r="M13" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="A14" s="5"/>
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>249</v>
+        <v>195</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>36</v>
@@ -19044,23 +18739,21 @@
         <v>90</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14"/>
       <c r="M14" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="A15" s="5"/>
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>51</v>
@@ -19079,7 +18772,7 @@
       </c>
       <c r="L15" s="4"/>
       <c r="M15" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -19090,7 +18783,7 @@
         <v>67</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>251</v>
+        <v>197</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>70</v>
@@ -19111,11 +18804,11 @@
         <v>90</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -19126,7 +18819,7 @@
         <v>67</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>252</v>
+        <v>198</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>71</v>
@@ -19145,7 +18838,7 @@
       </c>
       <c r="L17" s="4"/>
       <c r="M17" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -19156,7 +18849,7 @@
         <v>67</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>73</v>
@@ -19177,11 +18870,11 @@
         <v>90</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -19192,7 +18885,7 @@
         <v>67</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>73</v>
@@ -19213,11 +18906,11 @@
         <v>90</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -19228,7 +18921,7 @@
         <v>67</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>255</v>
+        <v>201</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>84</v>
@@ -19247,7 +18940,7 @@
       </c>
       <c r="L20" s="4"/>
       <c r="M20" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -19258,7 +18951,7 @@
         <v>67</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>256</v>
+        <v>202</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>86</v>
@@ -19279,11 +18972,11 @@
         <v>90</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -19294,7 +18987,7 @@
         <v>67</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>257</v>
+        <v>203</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>89</v>
@@ -19320,7 +19013,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="4"/>
       <c r="M22" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -19331,13 +19024,13 @@
         <v>67</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>258</v>
+        <v>204</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>84</v>
+        <v>232</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>83</v>
+        <v>233</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>24</v>
@@ -19346,11 +19039,11 @@
         <v>21</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="L23" s="4"/>
       <c r="M23" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -19361,31 +19054,31 @@
         <v>67</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="D24" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="E24" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>270</v>
+        <v>213</v>
       </c>
       <c r="H24"/>
       <c r="I24" s="2" t="s">
         <v>90</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -19396,13 +19089,13 @@
         <v>67</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>94</v>
+        <v>234</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>93</v>
+        <v>235</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>24</v>
@@ -19411,18 +19104,18 @@
         <v>87</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="4"/>
       <c r="M25" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -19433,7 +19126,7 @@
         <v>67</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>282</v>
+        <v>222</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>86</v>
@@ -19448,17 +19141,17 @@
         <v>37</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>90</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="L26" s="4"/>
       <c r="M26" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -19469,33 +19162,33 @@
         <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>89</v>
+        <v>236</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>88</v>
+        <v>237</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="4"/>
       <c r="M27" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -19506,7 +19199,7 @@
         <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>86</v>
@@ -19527,12 +19220,12 @@
         <v>90</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="4"/>
       <c r="M28" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -19543,19 +19236,19 @@
         <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>84</v>
+        <v>238</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>83</v>
+        <v>239</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>260</v>
+        <v>206</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>92</v>
@@ -19564,7 +19257,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="4"/>
       <c r="M29" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -19575,13 +19268,13 @@
         <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>94</v>
+        <v>240</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>93</v>
+        <v>241</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>24</v>
@@ -19601,7 +19294,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="4"/>
       <c r="M30" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -19612,31 +19305,31 @@
         <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="D31" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="E31" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>270</v>
+        <v>213</v>
       </c>
       <c r="H31"/>
       <c r="I31" s="2" t="s">
         <v>90</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -19647,13 +19340,13 @@
         <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>24</v>
@@ -19662,18 +19355,18 @@
         <v>87</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K32" s="6"/>
       <c r="L32" s="4"/>
       <c r="M32" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -19684,31 +19377,31 @@
         <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="D33" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="E33" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>270</v>
+        <v>213</v>
       </c>
       <c r="H33"/>
       <c r="I33" s="2" t="s">
         <v>90</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="K33"/>
       <c r="L33"/>
       <c r="M33" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -19719,13 +19412,13 @@
         <v>67</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>97</v>
+        <v>234</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>98</v>
+        <v>235</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>24</v>
@@ -19734,18 +19427,18 @@
         <v>87</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>241</v>
+        <v>189</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>241</v>
+        <v>189</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="4"/>
       <c r="M34" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -19756,13 +19449,13 @@
         <v>67</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>24</v>
@@ -19771,48 +19464,48 @@
         <v>66</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>241</v>
+        <v>189</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="M35" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>114</v>
+      <c r="B36" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="D36" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="E36" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>270</v>
+        <v>213</v>
       </c>
       <c r="H36"/>
       <c r="I36" s="2" t="s">
         <v>90</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="K36"/>
       <c r="L36"/>
       <c r="M36" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -19823,10 +19516,10 @@
         <v>67</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>73</v>
+        <v>242</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>36</v>
@@ -19838,45 +19531,47 @@
         <v>37</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>90</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="5"/>
+      <c r="A38" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="B38" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>260</v>
+        <v>206</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L38" s="4"/>
       <c r="M38" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -19884,29 +19579,35 @@
         <v>80</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>100</v>
+        <v>37</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="L39" s="4"/>
       <c r="M39" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -19914,35 +19615,31 @@
         <v>80</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>36</v>
+        <v>149</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>273</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I40" s="6"/>
+      <c r="K40" s="6"/>
       <c r="L40" s="4"/>
       <c r="M40" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -19950,36 +19647,34 @@
         <v>80</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="I41" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="H41"/>
+      <c r="I41" s="2" t="s">
         <v>90</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="K41" s="6"/>
-      <c r="L41" s="4"/>
+        <v>217</v>
+      </c>
+      <c r="K41"/>
+      <c r="L41"/>
       <c r="M41" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -19987,34 +19682,36 @@
         <v>80</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D42" t="s">
-        <v>161</v>
-      </c>
-      <c r="E42" t="s">
-        <v>161</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="H42"/>
-      <c r="I42" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I42" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="K42"/>
-      <c r="L42"/>
+        <v>85</v>
+      </c>
+      <c r="K42" s="6"/>
+      <c r="L42" s="4"/>
       <c r="M42" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -20022,13 +19719,13 @@
         <v>80</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>36</v>
@@ -20040,17 +19737,17 @@
         <v>37</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>90</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="L43" s="4"/>
       <c r="M43" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -20058,16 +19755,16 @@
         <v>80</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>263</v>
+        <v>207</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>24</v>
@@ -20076,11 +19773,11 @@
         <v>21</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L44" s="4"/>
       <c r="M44" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -20088,10 +19785,10 @@
         <v>80</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>264</v>
+        <v>208</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>73</v>
@@ -20106,996 +19803,183 @@
         <v>37</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>90</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="L45" s="4"/>
       <c r="M45" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="M46" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="L47" s="4"/>
-      <c r="M47" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="K48" s="2"/>
-      <c r="M48" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="K49" s="2"/>
-      <c r="M49" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="K50" s="2"/>
-      <c r="M50" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="M51" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="L52" s="4"/>
-      <c r="M52" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="L53" s="4"/>
-      <c r="M53" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="L54" s="4"/>
-      <c r="M54" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="L55" s="4"/>
-      <c r="M55" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="L56" s="4"/>
-      <c r="M56" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="L57" s="4"/>
-      <c r="M57" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="L58" s="4"/>
-      <c r="M58" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="L59" s="4"/>
-      <c r="M59" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="K60" s="2"/>
-      <c r="L60"/>
-      <c r="M60" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="K61" s="2"/>
-      <c r="L61"/>
-      <c r="M61" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="5"/>
-      <c r="B62" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K62" s="2"/>
-      <c r="M62" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="5"/>
-      <c r="B63" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="K63" s="2"/>
-      <c r="M63" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="5"/>
-      <c r="B64" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K64" s="2"/>
-      <c r="M64" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
-      <c r="A65" s="5"/>
-      <c r="B65" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="K65" s="2"/>
-      <c r="M65" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
-      <c r="A66" s="5"/>
-      <c r="B66" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="K66" s="2"/>
-      <c r="M66" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
-      <c r="A67" s="5"/>
-      <c r="B67" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K67" s="2"/>
-      <c r="M67" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
-      <c r="A68" s="5"/>
-      <c r="B68" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K68" s="2"/>
-      <c r="M68" s="2" t="s">
-        <v>22</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="32" type="noConversion"/>
   <conditionalFormatting sqref="H8">
-    <cfRule type="duplicateValues" dxfId="103" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="184"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="duplicateValues" dxfId="102" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="209"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="duplicateValues" dxfId="101" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="duplicateValues" dxfId="100" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="duplicateValues" dxfId="99" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="duplicateValues" dxfId="98" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="duplicateValues" dxfId="97" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="duplicateValues" dxfId="96" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="duplicateValues" dxfId="95" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="duplicateValues" dxfId="94" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="duplicateValues" dxfId="92" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="duplicateValues" dxfId="91" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="109"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J42">
-    <cfRule type="duplicateValues" dxfId="90" priority="104"/>
+  <conditionalFormatting sqref="J41">
+    <cfRule type="duplicateValues" dxfId="72" priority="106"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
-    <cfRule type="duplicateValues" dxfId="89" priority="105"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
-    <cfRule type="duplicateValues" dxfId="88" priority="99"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="duplicateValues" dxfId="87" priority="100"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J60">
-    <cfRule type="duplicateValues" dxfId="86" priority="97"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="duplicateValues" dxfId="85" priority="98"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J61">
-    <cfRule type="duplicateValues" dxfId="84" priority="95"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
-    <cfRule type="duplicateValues" dxfId="83" priority="96"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J49">
-    <cfRule type="duplicateValues" dxfId="82" priority="67"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="duplicateValues" dxfId="81" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J50">
-    <cfRule type="duplicateValues" dxfId="80" priority="65"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="duplicateValues" dxfId="79" priority="66"/>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="duplicateValues" dxfId="71" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="duplicateValues" dxfId="78" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="duplicateValues" dxfId="77" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="duplicateValues" dxfId="75" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="duplicateValues" dxfId="74" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="duplicateValues" dxfId="72" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="duplicateValues" dxfId="71" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="69" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="68" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="duplicateValues" dxfId="66" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H7">
-    <cfRule type="duplicateValues" dxfId="65" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="64" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="duplicateValues" dxfId="63" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="62" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="duplicateValues" dxfId="60" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="duplicateValues" dxfId="59" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="duplicateValues" dxfId="58" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="duplicateValues" dxfId="56" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H13">
-    <cfRule type="duplicateValues" dxfId="55" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H13">
-    <cfRule type="duplicateValues" dxfId="54" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="duplicateValues" dxfId="52" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J56">
-    <cfRule type="duplicateValues" dxfId="51" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
-    <cfRule type="duplicateValues" dxfId="50" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="duplicateValues" dxfId="49" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="duplicateValues" dxfId="48" priority="209"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:J29">
-    <cfRule type="duplicateValues" dxfId="46" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="213"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:J29">
-    <cfRule type="duplicateValues" dxfId="45" priority="213"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="214"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="duplicateValues" dxfId="43" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="duplicateValues" dxfId="42" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="duplicateValues" dxfId="40" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="duplicateValues" dxfId="39" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="duplicateValues" dxfId="37" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="duplicateValues" dxfId="36" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="duplicateValues" dxfId="35" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="duplicateValues" dxfId="34" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="duplicateValues" dxfId="32" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="duplicateValues" dxfId="31" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="duplicateValues" dxfId="29" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="duplicateValues" dxfId="28" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="duplicateValues" dxfId="26" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33">
-    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36">
-    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="3"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" sqref="I2:I3 I5 I8 I12 I14 I16 I18:I19 I21 I24 I26 I28 I31 I33 I36:I37 I40 I42:I43 I45 I48:I50 I52 I54 I56:I57 I59:I61 I63 I65:I66 I10" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation showInputMessage="1" sqref="I2:I3 I5 I8 I12 I14 I16 I18:I19 I21 I24 I26 I28 I31 I33 I36:I37 I39 I10 I45 I41 I43" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F1:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21107,17 +19991,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet28"/>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="25.54296875" style="2" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="100.81640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="60.453125" style="2" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14.1796875" style="2" customWidth="1" collapsed="1"/>
     <col min="5" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
@@ -21172,7 +20056,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
@@ -21236,7 +20120,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>35</v>
@@ -21320,13 +20204,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>24</v>
@@ -21334,13 +20218,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>24</v>
@@ -21354,7 +20238,7 @@
         <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>24</v>
@@ -21432,13 +20316,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>24</v>
@@ -21446,13 +20330,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>24</v>
@@ -21460,13 +20344,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>268</v>
+        <v>211</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>24</v>
@@ -21474,27 +20358,24 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>24</v>
+      <c r="C26" s="5" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>127</v>
+      <c r="C27" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>24</v>
@@ -21502,13 +20383,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>24</v>
@@ -21516,13 +20397,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>24</v>
@@ -21530,13 +20411,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>24</v>
@@ -21544,13 +20425,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>245</v>
+        <v>191</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>24</v>
@@ -21558,13 +20439,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>24</v>
@@ -21572,13 +20453,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>24</v>
@@ -21586,13 +20467,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>24</v>
@@ -21600,13 +20481,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>24</v>
@@ -21614,13 +20495,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>24</v>
@@ -21628,13 +20509,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="5" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>24</v>
@@ -21642,13 +20523,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="5" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>24</v>
@@ -21656,13 +20537,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>24</v>
@@ -21670,13 +20551,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>24</v>
@@ -21684,13 +20565,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>24</v>
@@ -21698,13 +20579,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>24</v>
@@ -21712,13 +20593,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>24</v>
@@ -21726,13 +20607,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="5" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>24</v>
@@ -21746,7 +20627,7 @@
         <v>35</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>259</v>
+        <v>205</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>24</v>
@@ -21754,13 +20635,13 @@
     </row>
     <row r="46" spans="1:4" s="8" customFormat="1">
       <c r="A46" s="5" t="s">
-        <v>237</v>
+        <v>185</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>238</v>
+        <v>186</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>24</v>
@@ -21768,13 +20649,13 @@
     </row>
     <row r="47" spans="1:4" s="8" customFormat="1">
       <c r="A47" s="5" t="s">
-        <v>239</v>
+        <v>187</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>240</v>
+        <v>188</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>24</v>
@@ -21782,13 +20663,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>241</v>
+        <v>189</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>242</v>
+        <v>190</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>24</v>
@@ -21796,13 +20677,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
-        <v>266</v>
+        <v>210</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>265</v>
+        <v>209</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>24</v>
@@ -21810,15 +20691,53 @@
     </row>
     <row r="50" spans="1:4" s="8" customFormat="1">
       <c r="A50" s="5" t="s">
-        <v>278</v>
+        <v>219</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>280</v>
+        <v>221</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="C52" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="C53" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -21826,10 +20745,10 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D12">
     <sortCondition ref="D2:D12"/>
   </sortState>
-  <conditionalFormatting sqref="A48:A49 A1:A31 A41 A51:A1048576">
+  <conditionalFormatting sqref="A48:A49 A1:A31 A41 A51:A55 A58:A1048576">
     <cfRule type="duplicateValues" dxfId="23" priority="92"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48:A49 A1:A31 A41 A51:A1048576">
+  <conditionalFormatting sqref="A48:A49 A1:A31 A41 A51:A55 A58:A1048576">
     <cfRule type="duplicateValues" dxfId="22" priority="95"/>
     <cfRule type="duplicateValues" dxfId="21" priority="96"/>
   </conditionalFormatting>
